--- a/data/bank_acc/stock.xlsx
+++ b/data/bank_acc/stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\bank_acc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A589D0E2-471F-4885-B479-2A95A2E71677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD55C0-0D21-4660-B691-95E8F39A908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
-  <si>
-    <t>1-buy, 0-sell</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>number</t>
   </si>
@@ -376,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -394,313 +391,256 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>192</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>192</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>165</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>-15</v>
+      </c>
+      <c r="C4">
+        <v>225.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>165</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>156.78</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>225.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>45526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>175.25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>186.99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-60</v>
+      </c>
+      <c r="C8">
+        <v>185.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-20</v>
+      </c>
+      <c r="C9">
+        <v>188</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>156.78</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>175.25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11">
+        <v>69</v>
+      </c>
+      <c r="C11">
+        <v>30.55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>186.99</v>
-      </c>
-      <c r="E7" s="1">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>30.55</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="D8">
-        <v>185.3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>45551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>188</v>
-      </c>
-      <c r="E9" s="1">
-        <v>45575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B13">
+        <v>-78</v>
+      </c>
+      <c r="C13">
+        <v>22.09</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>40.659999999999997</v>
-      </c>
-      <c r="E10" s="1">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>69</v>
-      </c>
-      <c r="D11">
-        <v>30.55</v>
-      </c>
-      <c r="E11" s="1">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>30.55</v>
-      </c>
-      <c r="E12" s="1">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>78</v>
-      </c>
-      <c r="D13">
-        <v>22.09</v>
-      </c>
-      <c r="E13" s="1">
-        <v>45552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>42.96</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>66</v>
-      </c>
-      <c r="D14">
-        <v>39.659999999999997</v>
-      </c>
-      <c r="E14" s="1">
-        <v>45552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16">
+        <v>101</v>
+      </c>
+      <c r="C16">
+        <v>62.88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>47</v>
-      </c>
-      <c r="D15">
-        <v>42.96</v>
-      </c>
-      <c r="E15" s="1">
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>101</v>
-      </c>
-      <c r="D16">
-        <v>62.88</v>
-      </c>
-      <c r="E16" s="1">
-        <v>45446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
       <c r="B17">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C17">
-        <v>77</v>
-      </c>
-      <c r="D17">
         <v>63.69</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="1">
         <v>45455</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-107</v>
       </c>
       <c r="C18">
-        <v>107</v>
-      </c>
-      <c r="D18">
         <v>71.989999999999995</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="1">
         <v>45472</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19">
         <v>72.11</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="1">
         <v>45558</v>
       </c>
     </row>

--- a/data/bank_acc/stock.xlsx
+++ b/data/bank_acc/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD55C0-0D21-4660-B691-95E8F39A908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E58E8F-36EF-44A4-AB3F-2835F89CB30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,272 +376,272 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>192</v>
       </c>
-      <c r="D2" s="1">
-        <v>45313</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>165</v>
       </c>
-      <c r="D3" s="1">
-        <v>45404</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-15</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>225.5</v>
       </c>
-      <c r="D4" s="1">
-        <v>45526</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>156.78</v>
       </c>
-      <c r="D5" s="1">
-        <v>45323</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>175.25</v>
       </c>
-      <c r="D6" s="1">
-        <v>45370</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>186.99</v>
       </c>
-      <c r="D7" s="1">
-        <v>45390</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-60</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>185.3</v>
       </c>
-      <c r="D8" s="1">
-        <v>45551</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-20</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>188</v>
       </c>
-      <c r="D9" s="1">
-        <v>45575</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>100</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>40.659999999999997</v>
       </c>
-      <c r="D10" s="1">
-        <v>45386</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>69</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>30.55</v>
       </c>
-      <c r="D11" s="1">
-        <v>45413</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>30.55</v>
       </c>
-      <c r="D12" s="1">
-        <v>45450</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-78</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>22.09</v>
       </c>
-      <c r="D13" s="1">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45552</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>66</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>39.659999999999997</v>
       </c>
-      <c r="D14" s="1">
-        <v>45552</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>47</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>42.96</v>
       </c>
-      <c r="D15" s="1">
-        <v>45582</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>101</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>62.88</v>
       </c>
-      <c r="D16" s="1">
-        <v>45446</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>77</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>63.69</v>
       </c>
-      <c r="D17" s="1">
-        <v>45455</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-107</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>71.989999999999995</v>
       </c>
-      <c r="D18" s="1">
-        <v>45472</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>22</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>72.11</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45558</v>
       </c>
     </row>
   </sheetData>

--- a/data/bank_acc/stock.xlsx
+++ b/data/bank_acc/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E58E8F-36EF-44A4-AB3F-2835F89CB30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE634645-FC59-4445-98F8-EB2A48C88619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>number</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Apple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple </t>
   </si>
   <si>
     <t>Amazon</t>
@@ -376,7 +373,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +408,7 @@
         <v>45404</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -425,7 +422,7 @@
         <v>45526</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>-15</v>
@@ -439,7 +436,7 @@
         <v>45323</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -453,7 +450,7 @@
         <v>45370</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>40</v>
@@ -467,7 +464,7 @@
         <v>45390</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -481,7 +478,7 @@
         <v>45551</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>-60</v>
@@ -495,7 +492,7 @@
         <v>45575</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>-20</v>
@@ -509,7 +506,7 @@
         <v>45386</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -523,7 +520,7 @@
         <v>45413</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>69</v>
@@ -537,7 +534,7 @@
         <v>45450</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -551,7 +548,7 @@
         <v>45552</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>-78</v>
@@ -565,7 +562,7 @@
         <v>45552</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>66</v>
@@ -579,7 +576,7 @@
         <v>45582</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>47</v>
@@ -593,7 +590,7 @@
         <v>45446</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>101</v>
@@ -607,7 +604,7 @@
         <v>45455</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>77</v>
@@ -621,7 +618,7 @@
         <v>45472</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>-107</v>
@@ -635,7 +632,7 @@
         <v>45558</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>22</v>

--- a/data/bank_acc/stock.xlsx
+++ b/data/bank_acc/stock.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\polskagurom\data\bank_acc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukib\Desktop\hack\data\bank_acc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE634645-FC59-4445-98F8-EB2A48C88619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C849BA46-DFB7-44A3-B80F-6A34A3BD3B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>number</t>
   </si>
@@ -33,22 +33,25 @@
     <t xml:space="preserve">price </t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>Intel</t>
-  </si>
-  <si>
     <t>Bank of America</t>
   </si>
   <si>
     <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>cash_b</t>
+  </si>
+  <si>
+    <t>cash_a</t>
+  </si>
+  <si>
+    <t>AMD</t>
   </si>
 </sst>
 </file>
@@ -370,31 +373,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45313</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -402,246 +412,370 @@
       <c r="D2">
         <v>192</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>45000</v>
+      </c>
+      <c r="F2">
+        <f>E2-C2*D2</f>
+        <v>43080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45404</v>
+        <v>45323</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156.78</v>
+      </c>
+      <c r="E3">
+        <f>F2</f>
+        <v>43080</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="0">E3-C3*D3</f>
+        <v>38376.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45526</v>
+        <v>45370</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-15</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>225.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175.25</v>
+      </c>
+      <c r="E4">
+        <f>F3</f>
+        <v>38376.6</v>
+      </c>
+      <c r="F4">
+        <f>E4-C4*D4</f>
+        <v>31366.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45323</v>
+        <v>45386</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>156.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182.97</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E18" si="1">F4</f>
+        <v>31366.6</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>27707.199999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45370</v>
+        <v>45390</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>175.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186.99</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>27707.199999999997</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>18357.699999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45390</v>
+        <v>45404</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>186.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>18357.699999999997</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>14232.699999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45551</v>
+        <v>45413</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>-60</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>185.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>14232.699999999997</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3970.3299999999981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45575</v>
+        <v>45446</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-20</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62.88</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3970.3299999999981</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-2380.550000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45386</v>
+        <v>45450</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>40.659999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>167.81</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>-2380.550000000002</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-4729.8900000000021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45455</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>30.55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63.69</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>-4729.8900000000021</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-9634.0200000000023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45450</v>
+        <v>45472</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>-107</v>
       </c>
       <c r="D12">
-        <v>30.55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-9634.0200000000023</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-1931.0900000000029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>-15</v>
+      </c>
+      <c r="D13">
+        <v>225.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-1931.0900000000029</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1451.4099999999971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>-60</v>
+      </c>
+      <c r="D14">
+        <v>185.3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1451.4099999999971</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>12569.409999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>45552</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>-19</v>
+      </c>
+      <c r="D15">
+        <v>153.78</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>12569.409999999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>15491.229999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>-78</v>
-      </c>
-      <c r="D13">
-        <v>22.09</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45552</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>66</v>
-      </c>
-      <c r="D14">
-        <v>39.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>72.11</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>15491.229999999996</v>
+      </c>
+      <c r="F16">
+        <f>E16-C16*D16</f>
+        <v>13904.809999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-20</v>
+      </c>
+      <c r="D17">
+        <v>188</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>13904.809999999996</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>17664.809999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45582</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
         <v>47</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>42.96</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>45446</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>101</v>
-      </c>
-      <c r="D16">
-        <v>62.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45455</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17">
-        <v>77</v>
-      </c>
-      <c r="D17">
-        <v>63.69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>45472</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <v>-107</v>
-      </c>
-      <c r="D18">
-        <v>71.989999999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>45558</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>72.11</v>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>17664.809999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>15645.689999999997</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>